--- a/sensorTest.xlsx
+++ b/sensorTest.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9492" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9492" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Assessment" sheetId="1" r:id="rId1"/>
@@ -601,37 +601,37 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>50</c:v>
+                  <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>100</c:v>
+                  <c:v>300</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>170</c:v>
+                  <c:v>730</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>350</c:v>
+                  <c:v>750</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>400</c:v>
+                  <c:v>770</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>420</c:v>
+                  <c:v>800</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>440</c:v>
+                  <c:v>830</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>470</c:v>
+                  <c:v>870</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>480</c:v>
+                  <c:v>910</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>490</c:v>
+                  <c:v>940</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>502</c:v>
+                  <c:v>950</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2020,15 +2020,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>148590</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>365760</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>148590</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2431,7 +2431,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
@@ -2818,8 +2818,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2854,7 +2854,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="B3">
         <v>5</v>
@@ -2866,7 +2866,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="B4">
         <v>10</v>
@@ -2878,7 +2878,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>170</v>
+        <v>730</v>
       </c>
       <c r="B5">
         <v>20</v>
@@ -2890,7 +2890,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>350</v>
+        <v>750</v>
       </c>
       <c r="B6">
         <v>30</v>
@@ -2902,7 +2902,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>400</v>
+        <v>770</v>
       </c>
       <c r="B7">
         <v>40</v>
@@ -2914,7 +2914,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>420</v>
+        <v>800</v>
       </c>
       <c r="B8">
         <v>50</v>
@@ -2926,7 +2926,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>440</v>
+        <v>830</v>
       </c>
       <c r="B9">
         <v>60</v>
@@ -2938,7 +2938,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>470</v>
+        <v>870</v>
       </c>
       <c r="B10">
         <v>70</v>
@@ -2950,7 +2950,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>480</v>
+        <v>910</v>
       </c>
       <c r="B11">
         <v>80</v>
@@ -2962,7 +2962,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>490</v>
+        <v>940</v>
       </c>
       <c r="B12">
         <v>90</v>
@@ -2974,7 +2974,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>502</v>
+        <v>950</v>
       </c>
       <c r="B13">
         <v>100</v>
@@ -2986,7 +2986,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>510</v>
+        <v>1024</v>
       </c>
       <c r="B14">
         <v>110</v>
